--- a/biology/Biochimie/Brenda_Ryman/Brenda_Ryman.xlsx
+++ b/biology/Biochimie/Brenda_Ryman/Brenda_Ryman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brenda Edith Ryman, née le 6 décembre 1922 à Bristol et morte le 20 novembre 1983, est une universitaire et biochimiste britannique. Elle est professeure à la faculté de médecine de l'hôpital de Charing Cross, à Londres de 1972 à 1983, et principale du Girton College, à Cambridge, de 1976 à 1983.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brenda Ryman fait ses études secondaires à la Colston's Girls' School de Bristol. Elle s'inscrit au Girton College et prépare un diplôme de sciences naturelles qu'elle obtient en 1943. Elle participe à l'effort de guerre durant deux ans, dans le laboratoire Glaxo, puis elle poursuit ses études à l'université de Birmingham, où elle obtient un doctorat en 1948[1]. Elle se marie en 1948 avec un médecin, Harry Barkley, le couple a deux enfants[2]. Elle est enseignante à la faculté de médecine du Royal Free Hospital de 1948 à 1972. Elle est nommée professeure de biochimie à l'hôpital de Charing Cross en 1972. Elle est principale de Girton College de 1976 jusqu'à sa mort en 1983[3], tout en gardant son poste à l'hôpital de Charing Cross[4]. Un symposium en son honneur est organisé le 22 septembre 1983 à la faculté de médecine de l'hôpital de Charing Cross[5]. Elle meurt le 20 novembre 1983[2]. Mary Warnock lui succède à la tête de Girton College.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brenda Ryman fait ses études secondaires à la Colston's Girls' School de Bristol. Elle s'inscrit au Girton College et prépare un diplôme de sciences naturelles qu'elle obtient en 1943. Elle participe à l'effort de guerre durant deux ans, dans le laboratoire Glaxo, puis elle poursuit ses études à l'université de Birmingham, où elle obtient un doctorat en 1948. Elle se marie en 1948 avec un médecin, Harry Barkley, le couple a deux enfants. Elle est enseignante à la faculté de médecine du Royal Free Hospital de 1948 à 1972. Elle est nommée professeure de biochimie à l'hôpital de Charing Cross en 1972. Elle est principale de Girton College de 1976 jusqu'à sa mort en 1983, tout en gardant son poste à l'hôpital de Charing Cross. Un symposium en son honneur est organisé le 22 septembre 1983 à la faculté de médecine de l'hôpital de Charing Cross. Elle meurt le 20 novembre 1983. Mary Warnock lui succède à la tête de Girton College.
 </t>
         </is>
       </c>
